--- a/1_Result_Tables/4_ifoCAST_evaluations_GVA_matched_since_2022/ifoCAst_error_tables_filtered_first_since_2022_GVA.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_GVA_matched_since_2022/ifoCAst_error_tables_filtered_first_since_2022_GVA.xlsx
@@ -452,22 +452,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1162344330806182</v>
+        <v>0.1068730318990097</v>
       </c>
       <c r="C3">
-        <v>0.6522893363659478</v>
+        <v>0.6104158195844518</v>
       </c>
       <c r="D3">
-        <v>0.6934481797295776</v>
+        <v>0.6472573004727202</v>
       </c>
       <c r="E3">
-        <v>0.8327353599611209</v>
+        <v>0.8045230266889322</v>
       </c>
       <c r="F3">
-        <v>0.8557106047537364</v>
+        <v>0.8253800783743511</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,22 +475,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.222845698340333</v>
+        <v>0.2448706236272014</v>
       </c>
       <c r="C4">
-        <v>0.7574238478304955</v>
+        <v>0.7412646195823523</v>
       </c>
       <c r="D4">
-        <v>0.8892371391915533</v>
+        <v>0.8458750405844518</v>
       </c>
       <c r="E4">
-        <v>0.9429937111092276</v>
+        <v>0.9197146517178314</v>
       </c>
       <c r="F4">
-        <v>0.953698945378638</v>
+        <v>0.9199827697284622</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
